--- a/data/trans_dic/P55_6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un automóvil</t>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,14%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>90,53%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>84,84%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92,2%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>85,46%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,17; 98,64</t>
+          <t>77,82; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,18; 97,32</t>
+          <t>67,97; 96,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,93; 97,27</t>
+          <t>79,98; 97,61</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>72,58; 93,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>83,11; 96,62</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76,16; 92,23</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>90,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>85,67%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92,51%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,13; 98,76</t>
+          <t>82,66; 98,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,22; 97,14</t>
+          <t>68,76; 96,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,47; 96,99</t>
+          <t>79,36; 97,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>70,37; 94,21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84,55; 97,05</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74,85; 92,34</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>96,97%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97,25%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>91,48%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,9; 98,16</t>
+          <t>88,42; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,34; 97,03</t>
+          <t>81,07; 97,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,25; 96,37</t>
+          <t>91,47; 99,13</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84,04; 96,21</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>93,49; 99,06</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>85,73; 95,54</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,27%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>90,31%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87,51%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94,37%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>92,33%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,51; 99,45</t>
+          <t>93,63; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,59; 91,14</t>
+          <t>92,07; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,08; 94,44</t>
+          <t>83,53; 94,84</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>79,89; 92,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90,26; 97,12</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87,4; 95,57</t>
         </is>
       </c>
     </row>
@@ -756,17 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>82,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>75,7%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>75,69%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81,5%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>79,44%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>78,89; 91,71</t>
+          <t>74,69; 92,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,49; 89,62</t>
+          <t>63,33; 91,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,28; 89,08</t>
+          <t>62,02; 86,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60,72; 86,7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74,29; 88,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68,3; 87,31</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66,55%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>79,24%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78,37%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>80,02; 95,7</t>
+          <t>76,97; 97,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 85,09</t>
+          <t>84,23; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>70,36; 87,27</t>
+          <t>52,26; 82,49</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42,84; 83,74</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>67,41; 87,85</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>58,2; 89,08</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>87,66%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82,39%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>90,74%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86,08%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,24; 94,96</t>
+          <t>90,78; 96,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>83,26; 89,4</t>
+          <t>85,2; 93,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,72; 91,61</t>
+          <t>83,4; 91,19</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>75,01; 86,7</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>88,15; 92,65</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82,02; 89,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un automóvil (tasa de respuesta: 99,14%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>119621</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>111411</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108479</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>123442</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>228100</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>234852</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99271; 127558</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>87891; 124147</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>95837; 116966</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105603; 136034</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>205611; 239026</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>209285; 253456</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>139771</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>192759</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>112403</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>139105</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>252174</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>331863</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122860; 146570</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>154925; 217052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>98383; 121082</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>114261; 152980</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>230492; 264569</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>290200; 358015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132282</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>165170</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>192960</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>214902</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>325242</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>380072</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>119770; 135456</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>146126; 176321</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>182014; 197254</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>197671; 226289</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>312650; 331278</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>356195; 396947</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>154218</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196233</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>151263</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>186165</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>305481</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>382399</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>146260; 156211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>185443; 201412</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>139913; 158853</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>169962; 197728</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>292166; 314376</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>361955; 395790</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>105659</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>125552</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>68560</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>103736</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>174219</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>229289</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92008; 114126</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>96005; 139307</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>56172; 78395</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83221; 118823</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>158796; 188406</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>197139; 252003</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>82110</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>126602</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>133117</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>152711</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>259719</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>69373; 87798</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>110685; 131402</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>53611; 84625</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>85689; 167487</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>129905; 169301</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>192883; 295210</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>733662</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>917727</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>704266</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>900466</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1437928</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1818194</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>709165; 752807</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>868432; 951847</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>670065; 732621</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>819735; 947593</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1396852; 1468147</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1732305; 1880149</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>